--- a/EggDescriptor.xlsx
+++ b/EggDescriptor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00196165\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00196165\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Describe Role in game</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>ice block</t>
+  </si>
+  <si>
+    <t>spawns enemies after conditions are met.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +436,9 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/EggDescriptor.xlsx
+++ b/EggDescriptor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Describe Role in game</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Text Description</t>
   </si>
   <si>
-    <t>Eg Turn Left</t>
-  </si>
-  <si>
     <t>External Outgoing</t>
   </si>
   <si>
@@ -50,24 +47,12 @@
     <t>Communication with?</t>
   </si>
   <si>
-    <t>Eg Push</t>
-  </si>
-  <si>
     <t>External Incoming</t>
   </si>
   <si>
-    <t xml:space="preserve">Return </t>
-  </si>
-  <si>
-    <t>ShouldTurnLeft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name of InterFace </t>
   </si>
   <si>
-    <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
-  </si>
-  <si>
     <t>Shane</t>
   </si>
   <si>
@@ -84,6 +69,42 @@
   </si>
   <si>
     <t>spawns enemies after conditions are met.</t>
+  </si>
+  <si>
+    <t>Remain Idle at set location or inside a</t>
+  </si>
+  <si>
+    <t>time or ice cube destroyed are met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parented ice cube until conditions like </t>
+  </si>
+  <si>
+    <t>waits for game conditions to be met to trigger spawn enemy script</t>
+  </si>
+  <si>
+    <t>NotInIce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>NotInIce: Confirms the egg is not in an iceblock</t>
+  </si>
+  <si>
+    <t>Time: Hatch egg after a few seconds</t>
+  </si>
+  <si>
+    <t>spawnEnemy(IceDestroyed = true &amp;&amp; NotInIce = true || time &gt; 3 seconds &amp;&amp; NotInIce = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IceDestroyed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirms an iceblock has been destroyed </t>
+  </si>
+  <si>
+    <t>EggControl</t>
   </si>
 </sst>
 </file>
@@ -404,24 +425,24 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -434,10 +455,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,59 +471,86 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
